--- a/data/balance_sheet/3digits/total/612_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/612_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>612-Wireless telecommunications activities</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>612-Wireless telecommunications activities</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,12 +915,17 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>8701241.320180001</v>
@@ -1493,29 +943,34 @@
         <v>16936907.05901</v>
       </c>
       <c r="H5" s="33" t="n">
-        <v>20877761.83066</v>
+        <v>20899976.90659</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>19076931.77492</v>
+        <v>22311711.1235</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>18429920.74129</v>
+        <v>25452218.73252</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>22888338.75385</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>28620552.63776</v>
+        <v>28621003.67104</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>33899538.34541</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>33901467.19337</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>37090279.841</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>4641739.149440001</v>
@@ -1527,35 +982,40 @@
         <v>6796356.51144</v>
       </c>
       <c r="F6" s="33" t="n">
-        <v>7329672.639690001</v>
+        <v>7329672.639689999</v>
       </c>
       <c r="G6" s="23" t="n">
-        <v>8591838.01695</v>
+        <v>8591838.016949998</v>
       </c>
       <c r="H6" s="33" t="n">
-        <v>8612308.815330001</v>
+        <v>8612311.494210001</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>3400203.37538</v>
+        <v>4540194.13778</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>6450961.029320001</v>
+        <v>6571912.29471</v>
       </c>
       <c r="K6" s="23" t="n">
         <v>4751484.97224</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>8109226.50834</v>
+        <v>8109275.564449999</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>11203751.82055</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>11204682.24202</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>13137107.016</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>1232.14909</v>
@@ -1573,29 +1033,34 @@
         <v>3439.38354</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>5154.43021</v>
+        <v>5156.987880000001</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>9999.957609999999</v>
+        <v>10004.73582</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>27257.55407</v>
+        <v>27259.2518</v>
       </c>
       <c r="K7" s="22" t="n">
         <v>30166.9975</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>26643.2049</v>
+        <v>26664.02283</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>31111.81729</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>31937.07699</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>34541.446</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>7429.30328</v>
@@ -1616,7 +1081,7 @@
         <v>34862.41053</v>
       </c>
       <c r="I8" s="22" t="n">
-        <v>30085.22947</v>
+        <v>32972.75647</v>
       </c>
       <c r="J8" s="21" t="n">
         <v>33223.40848</v>
@@ -1630,52 +1095,62 @@
       <c r="M8" s="22" t="n">
         <v>30331.94406</v>
       </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+      <c r="N8" s="22" t="n">
+        <v>31044.522</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>4536204.45947</v>
       </c>
       <c r="D9" s="22" t="n">
-        <v>5455498.857409999</v>
+        <v>5455498.85741</v>
       </c>
       <c r="E9" s="22" t="n">
-        <v>6598258.26492</v>
+        <v>6598258.264919999</v>
       </c>
       <c r="F9" s="21" t="n">
-        <v>6875207.410580001</v>
+        <v>6875207.41058</v>
       </c>
       <c r="G9" s="22" t="n">
-        <v>8044810.88958</v>
+        <v>8044810.889580001</v>
       </c>
       <c r="H9" s="21" t="n">
-        <v>8045932.48341</v>
+        <v>8045932.60462</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>2924984.21356</v>
+        <v>3914268.51579</v>
       </c>
       <c r="J9" s="21" t="n">
-        <v>5987862.41091</v>
+        <v>6098748.655769999</v>
       </c>
       <c r="K9" s="22" t="n">
         <v>4251346.90532</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>7596261.53572</v>
+        <v>7596289.7739</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>10604790.85963</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>10605068.7369</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>12605252.981</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>521.1038199999999</v>
@@ -1708,14 +1183,19 @@
         <v>46994.129</v>
       </c>
       <c r="M10" s="22" t="n">
-        <v>47434.9483</v>
-      </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+        <v>47609.0128</v>
+      </c>
+      <c r="N10" s="22" t="n">
+        <v>43247.209</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>97394.34142</v>
@@ -1736,10 +1216,10 @@
         <v>570386.83495</v>
       </c>
       <c r="I11" s="22" t="n">
-        <v>480295.17313</v>
+        <v>628109.32809</v>
       </c>
       <c r="J11" s="21" t="n">
-        <v>448253.79437</v>
+        <v>458317.11717</v>
       </c>
       <c r="K11" s="22" t="n">
         <v>483316.29729</v>
@@ -1748,14 +1228,19 @@
         <v>501453.2498400001</v>
       </c>
       <c r="M11" s="22" t="n">
-        <v>584952.14787</v>
-      </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+        <v>584953.4968699999</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>509515.276</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>347903.79754</v>
@@ -1779,7 +1264,7 @@
         <v>193124.58019</v>
       </c>
       <c r="J12" s="33" t="n">
-        <v>63270.48519</v>
+        <v>1165731.93827</v>
       </c>
       <c r="K12" s="23" t="n">
         <v>2162959.85084</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>2035929.37466</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>2554051.869</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>48.34995</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>50.931</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>1044.68413</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>428558.28215</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>529510.38</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>93614.91976</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>253244.19365</v>
@@ -1939,7 +1444,7 @@
         <v>192911.99105</v>
       </c>
       <c r="J16" s="21" t="n">
-        <v>775.60289</v>
+        <v>1103237.05597</v>
       </c>
       <c r="K16" s="22" t="n">
         <v>2162848.33587</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>1607322.74256</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>2024490.558</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,12 +1500,17 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>1722149.11052</v>
@@ -2010,32 +1525,37 @@
         <v>3000830.87176</v>
       </c>
       <c r="G18" s="23" t="n">
-        <v>3654045.55692</v>
+        <v>3654045.556919999</v>
       </c>
       <c r="H18" s="33" t="n">
         <v>5547601.809350001</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>6603015.45609</v>
+        <v>7330450.34361</v>
       </c>
       <c r="J18" s="33" t="n">
-        <v>4657084.703879999</v>
+        <v>8705913.336379999</v>
       </c>
       <c r="K18" s="23" t="n">
-        <v>8993377.583349999</v>
+        <v>8993377.583350001</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>10313451.98433</v>
+        <v>10313556.23618</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>9959792.537910001</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>9960387.55081</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>10538748.145</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>1706067.46772</v>
@@ -2056,26 +1576,31 @@
         <v>4329643.26326</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>5364541.439929999</v>
+        <v>6072574.78331</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>3482516.82261</v>
+        <v>7391756.01329</v>
       </c>
       <c r="K19" s="22" t="n">
         <v>7685208.76823</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>9049685.710640002</v>
+        <v>9049789.962489998</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>8634812.924350001</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>8634341.36923</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>9266260.471999999</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>1371.30656</v>
@@ -2096,10 +1621,10 @@
         <v>7312.69947</v>
       </c>
       <c r="I20" s="22" t="n">
-        <v>12699.50017</v>
+        <v>12786.50017</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>19345.67473</v>
+        <v>20146.59959</v>
       </c>
       <c r="K20" s="22" t="n">
         <v>16603.33268</v>
@@ -2108,14 +1633,19 @@
         <v>3688.29945</v>
       </c>
       <c r="M20" s="22" t="n">
-        <v>4614.3956</v>
-      </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+        <v>5680.96362</v>
+      </c>
+      <c r="N20" s="22" t="n">
+        <v>6408.907</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,18 +1725,23 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>656.19474</v>
       </c>
       <c r="D23" s="22" t="n">
-        <v>856.08078</v>
+        <v>856.0807799999999</v>
       </c>
       <c r="E23" s="22" t="n">
         <v>135.68715</v>
@@ -2219,7 +1759,7 @@
         <v>11491.8402</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>11656.07005</v>
+        <v>11787.75674</v>
       </c>
       <c r="K23" s="22" t="n">
         <v>15349.37717</v>
@@ -2230,21 +1770,26 @@
       <c r="M23" s="22" t="n">
         <v>19245.30515</v>
       </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+      <c r="N23" s="22" t="n">
+        <v>15854.083</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
-        <v>4938.147730000001</v>
+        <v>4938.14773</v>
       </c>
       <c r="D24" s="22" t="n">
         <v>34713.19261999999</v>
       </c>
       <c r="E24" s="22" t="n">
-        <v>29352.13673999999</v>
+        <v>29352.13674</v>
       </c>
       <c r="F24" s="21" t="n">
         <v>31289.91185</v>
@@ -2256,7 +1801,7 @@
         <v>1124743.51669</v>
       </c>
       <c r="I24" s="22" t="n">
-        <v>1096303.12749</v>
+        <v>1115617.67163</v>
       </c>
       <c r="J24" s="21" t="n">
         <v>1140189.14325</v>
@@ -2270,15 +1815,20 @@
       <c r="M24" s="22" t="n">
         <v>1105822.69881</v>
       </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+      <c r="N24" s="22" t="n">
+        <v>1111305.811</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
-        <v>601166.2099700002</v>
+        <v>601166.2099700001</v>
       </c>
       <c r="D25" s="22" t="n">
         <v>955686.19441</v>
@@ -2296,10 +1846,10 @@
         <v>2150330.92911</v>
       </c>
       <c r="I25" s="22" t="n">
-        <v>1901528.46069</v>
+        <v>2658851.43306</v>
       </c>
       <c r="J25" s="21" t="n">
-        <v>2091304.26551</v>
+        <v>3105115.38203</v>
       </c>
       <c r="K25" s="22" t="n">
         <v>3293329.353790001</v>
@@ -2310,12 +1860,17 @@
       <c r="M25" s="22" t="n">
         <v>3736054.60486</v>
       </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+      <c r="N25" s="22" t="n">
+        <v>4162261.139</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>592050.2162</v>
@@ -2336,10 +1891,10 @@
         <v>2075850.93687</v>
       </c>
       <c r="I26" s="22" t="n">
-        <v>1783548.91239</v>
+        <v>2540871.88476</v>
       </c>
       <c r="J26" s="21" t="n">
-        <v>2087927.27227</v>
+        <v>2963081.55852</v>
       </c>
       <c r="K26" s="22" t="n">
         <v>3097959.74904</v>
@@ -2350,12 +1905,17 @@
       <c r="M26" s="22" t="n">
         <v>3540757.39086</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>4023342.267</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>290904.41586</v>
@@ -2376,35 +1936,40 @@
         <v>4225979.10255</v>
       </c>
       <c r="I27" s="23" t="n">
-        <v>6631207.34408</v>
+        <v>6943542.0775</v>
       </c>
       <c r="J27" s="33" t="n">
-        <v>4614958.36623</v>
+        <v>5328091.67825</v>
       </c>
       <c r="K27" s="23" t="n">
-        <v>4343290.36502</v>
+        <v>4343290.365019999</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>5571399.92408</v>
+        <v>5571637.11304</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>7224331.860120001</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>7224335.574519999</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>7518868.485</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
-        <v>4970.625550000001</v>
+        <v>4970.62555</v>
       </c>
       <c r="D28" s="22" t="n">
         <v>6588.54708</v>
       </c>
       <c r="E28" s="22" t="n">
-        <v>9937.594569999999</v>
+        <v>9937.594570000001</v>
       </c>
       <c r="F28" s="21" t="n">
         <v>108222.02157</v>
@@ -2413,29 +1978,34 @@
         <v>73541.15656</v>
       </c>
       <c r="H28" s="21" t="n">
-        <v>327899.6568500001</v>
+        <v>327899.65685</v>
       </c>
       <c r="I28" s="22" t="n">
-        <v>499605.92628</v>
+        <v>728455.34267</v>
       </c>
       <c r="J28" s="21" t="n">
-        <v>18302.42036</v>
+        <v>698686.5944200001</v>
       </c>
       <c r="K28" s="22" t="n">
         <v>69123.64825</v>
       </c>
       <c r="L28" s="22" t="n">
-        <v>75583.83976</v>
+        <v>75820.98537000001</v>
       </c>
       <c r="M28" s="22" t="n">
         <v>536326.27702</v>
       </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+      <c r="N28" s="22" t="n">
+        <v>679169.4179999999</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>2616.54337</v>
@@ -2459,7 +2029,7 @@
         <v>52680.24755</v>
       </c>
       <c r="J29" s="21" t="n">
-        <v>52321.39984</v>
+        <v>52321.39984000001</v>
       </c>
       <c r="K29" s="22" t="n">
         <v>52335.28258</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>52313.92536</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>52313.925</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>4652.105759999999</v>
@@ -2490,7 +2065,7 @@
         <v>268158.19498</v>
       </c>
       <c r="G30" s="22" t="n">
-        <v>320605.4522299999</v>
+        <v>320605.45223</v>
       </c>
       <c r="H30" s="21" t="n">
         <v>349509.39004</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>4844270.889239999</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>5104959.788</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>2432.13087</v>
@@ -2536,10 +2116,10 @@
         <v>3985.26205</v>
       </c>
       <c r="I31" s="22" t="n">
-        <v>3985.21355</v>
+        <v>3985.2178</v>
       </c>
       <c r="J31" s="21" t="n">
-        <v>2480.67015</v>
+        <v>3362.37397</v>
       </c>
       <c r="K31" s="22" t="n">
         <v>4089.77441</v>
@@ -2550,12 +2130,17 @@
       <c r="M31" s="22" t="n">
         <v>6170.227140000001</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>5878.679</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>276233.0103099999</v>
@@ -2576,26 +2161,31 @@
         <v>3492270.86825</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>3936754.20317</v>
+        <v>4020239.51595</v>
       </c>
       <c r="J32" s="21" t="n">
-        <v>2037802.4739</v>
+        <v>2069669.90804</v>
       </c>
       <c r="K32" s="22" t="n">
         <v>1181006.14913</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>1286802.29772</v>
+        <v>1286802.34107</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>1785250.54136</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>1785254.25576</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>1676546.112</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>0</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>0</v>
@@ -2710,15 +2310,20 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
-        <v>969377.3847899999</v>
+        <v>969377.38479</v>
       </c>
       <c r="D36" s="23" t="n">
         <v>169923.4604</v>
@@ -2730,35 +2335,40 @@
         <v>305048.15594</v>
       </c>
       <c r="G36" s="23" t="n">
-        <v>303039.8535800001</v>
+        <v>303039.85358</v>
       </c>
       <c r="H36" s="33" t="n">
-        <v>497724.28111</v>
+        <v>519791.87396</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>257769.02419</v>
+        <v>464056.48694</v>
       </c>
       <c r="J36" s="33" t="n">
-        <v>457473.01611</v>
+        <v>542370.7429599999</v>
       </c>
       <c r="K36" s="23" t="n">
         <v>545667.93852</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>581029.0409199999</v>
+        <v>581073.42005</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>575507.2710400001</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>576033.8196800001</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>619783.029</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
-        <v>5520.01336</v>
+        <v>5520.013359999999</v>
       </c>
       <c r="D37" s="22" t="n">
         <v>13359.49092</v>
@@ -2790,12 +2400,17 @@
       <c r="M37" s="22" t="n">
         <v>13842.58235</v>
       </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+      <c r="N37" s="22" t="n">
+        <v>8721.904</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>68323.39709</v>
@@ -2830,12 +2445,17 @@
       <c r="M38" s="22" t="n">
         <v>42654.56627</v>
       </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+      <c r="N38" s="22" t="n">
+        <v>25540.813</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>236.57798</v>
@@ -2870,12 +2490,17 @@
       <c r="M39" s="22" t="n">
         <v>26356.15419</v>
       </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+      <c r="N39" s="22" t="n">
+        <v>32144.038</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>36950.18864</v>
@@ -2884,38 +2509,43 @@
         <v>47590.73348</v>
       </c>
       <c r="E40" s="22" t="n">
-        <v>55911.35071</v>
+        <v>55911.35071000001</v>
       </c>
       <c r="F40" s="21" t="n">
-        <v>64854.76107</v>
+        <v>64854.76107000001</v>
       </c>
       <c r="G40" s="22" t="n">
         <v>119955.88747</v>
       </c>
       <c r="H40" s="21" t="n">
-        <v>125006.56128</v>
+        <v>147074.15413</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>122631.03428</v>
+        <v>142933.98828</v>
       </c>
       <c r="J40" s="21" t="n">
-        <v>138806.10968</v>
+        <v>207909.33417</v>
       </c>
       <c r="K40" s="22" t="n">
         <v>202101.42447</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>232020.65246</v>
+        <v>232064.08059</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>234595.55277</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>235112.70141</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>271566.284</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>12386.69856</v>
@@ -2936,7 +2566,7 @@
         <v>18235.36552</v>
       </c>
       <c r="I41" s="22" t="n">
-        <v>15573.4288</v>
+        <v>17819.70985</v>
       </c>
       <c r="J41" s="21" t="n">
         <v>16763.48126</v>
@@ -2948,14 +2578,19 @@
         <v>15652.47716</v>
       </c>
       <c r="M41" s="22" t="n">
-        <v>47657.77652000001</v>
-      </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+        <v>47657.77652</v>
+      </c>
+      <c r="N41" s="22" t="n">
+        <v>22979.468</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>2533.15485</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>848493.6640099999</v>
@@ -3016,26 +2656,31 @@
         <v>277691.32304</v>
       </c>
       <c r="I43" s="22" t="n">
-        <v>48048.84746</v>
+        <v>231787.07516</v>
       </c>
       <c r="J43" s="21" t="n">
-        <v>210061.50956</v>
+        <v>225856.01192</v>
       </c>
       <c r="K43" s="22" t="n">
         <v>257426.6879</v>
       </c>
       <c r="L43" s="22" t="n">
-        <v>240132.71829</v>
+        <v>240133.66929</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>210400.63894</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>210410.03894</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>258830.522</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>0</v>
@@ -3070,12 +2715,17 @@
       <c r="M44" s="23" t="n">
         <v>2328.35491</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>3484.833</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>0</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>2328.35491</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>3484.833</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>556924.42625</v>
@@ -3204,22 +2869,22 @@
         <v>695648.7228100001</v>
       </c>
       <c r="E48" s="46" t="n">
-        <v>786909.3226099999</v>
+        <v>786909.32261</v>
       </c>
       <c r="F48" s="45" t="n">
-        <v>704848.3095300001</v>
+        <v>704848.30953</v>
       </c>
       <c r="G48" s="46" t="n">
         <v>1129192.65221</v>
       </c>
       <c r="H48" s="45" t="n">
-        <v>1240797.36676</v>
+        <v>1240802.49828</v>
       </c>
       <c r="I48" s="46" t="n">
-        <v>921309.76936</v>
+        <v>1208264.11021</v>
       </c>
       <c r="J48" s="45" t="n">
-        <v>1479455.28122</v>
+        <v>2106619.86447</v>
       </c>
       <c r="K48" s="46" t="n">
         <v>1762508.52864</v>
@@ -3228,14 +2893,19 @@
         <v>2182057.7095</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>2572192.45313</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>2572060.72677</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>2451310.884</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>323022.16595</v>
@@ -3253,13 +2923,13 @@
         <v>486395.61671</v>
       </c>
       <c r="H49" s="21" t="n">
-        <v>530488.24027</v>
+        <v>530493.37179</v>
       </c>
       <c r="I49" s="22" t="n">
-        <v>492422.14153</v>
+        <v>653515.16956</v>
       </c>
       <c r="J49" s="21" t="n">
-        <v>813959.2099400001</v>
+        <v>1297023.18557</v>
       </c>
       <c r="K49" s="22" t="n">
         <v>894646.2105299999</v>
@@ -3268,14 +2938,19 @@
         <v>1098566.61911</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>1306125.46227</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>1305993.73591</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>1117271.377</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>233902.2603</v>
@@ -3293,16 +2968,16 @@
         <v>642797.0355</v>
       </c>
       <c r="H50" s="21" t="n">
-        <v>710309.1264899999</v>
+        <v>710309.1264900001</v>
       </c>
       <c r="I50" s="22" t="n">
-        <v>428887.62783</v>
+        <v>554748.94065</v>
       </c>
       <c r="J50" s="21" t="n">
-        <v>665496.07128</v>
+        <v>809596.6788999999</v>
       </c>
       <c r="K50" s="22" t="n">
-        <v>867862.3181100001</v>
+        <v>867862.31811</v>
       </c>
       <c r="L50" s="22" t="n">
         <v>1083491.09039</v>
@@ -3310,12 +2985,17 @@
       <c r="M50" s="22" t="n">
         <v>1266066.99086</v>
       </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+      <c r="N50" s="22" t="n">
+        <v>1334039.507</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>172243.03578</v>
@@ -3333,29 +3013,34 @@
         <v>183143.10801</v>
       </c>
       <c r="H51" s="45" t="n">
-        <v>469248.7649199999</v>
+        <v>469388.4376</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>1068056.95642</v>
+        <v>1629834.11806</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>702756.5467300001</v>
+        <v>1027617.56487</v>
       </c>
       <c r="K51" s="46" t="n">
         <v>322468.3345100001</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>228348.40013</v>
+        <v>228364.5573599999</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>325704.67309</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>325709.55</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>266925.58</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>122891.63288</v>
@@ -3367,35 +3052,40 @@
         <v>156587.66505</v>
       </c>
       <c r="F52" s="21" t="n">
-        <v>84119.72111999999</v>
+        <v>84119.72112</v>
       </c>
       <c r="G52" s="22" t="n">
-        <v>82233.82500999999</v>
+        <v>82233.82501</v>
       </c>
       <c r="H52" s="21" t="n">
-        <v>77497.03998999999</v>
+        <v>77636.71266999999</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>816510.53844</v>
+        <v>1346050.34223</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>330963.5889</v>
+        <v>653911.83857</v>
       </c>
       <c r="K52" s="22" t="n">
         <v>103667.53319</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>59969.87258</v>
+        <v>59982.96214999999</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>121100.00295</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>121109.08459</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>96164.645</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>9.277839999999999</v>
@@ -3425,17 +3115,22 @@
         <v>25.59495</v>
       </c>
       <c r="L53" s="22" t="n">
-        <v>244.59428</v>
+        <v>247.10642</v>
       </c>
       <c r="M53" s="22" t="n">
-        <v>454.68426</v>
-      </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+        <v>454.6842599999999</v>
+      </c>
+      <c r="N53" s="22" t="n">
+        <v>624.857</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>8.93197</v>
@@ -3456,7 +3151,7 @@
         <v>58.2049</v>
       </c>
       <c r="I54" s="22" t="n">
-        <v>71.83911999999999</v>
+        <v>71.83912000000001</v>
       </c>
       <c r="J54" s="21" t="n">
         <v>24.02211</v>
@@ -3470,12 +3165,17 @@
       <c r="M54" s="22" t="n">
         <v>415.64712</v>
       </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+      <c r="N54" s="22" t="n">
+        <v>425.698</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>23070.09061</v>
@@ -3496,26 +3196,31 @@
         <v>25963.5402</v>
       </c>
       <c r="I55" s="22" t="n">
-        <v>126569.83742</v>
+        <v>156483.19418</v>
       </c>
       <c r="J55" s="21" t="n">
-        <v>97451.12030999998</v>
+        <v>98461.38810000001</v>
       </c>
       <c r="K55" s="22" t="n">
-        <v>68537.10781999999</v>
+        <v>68537.10782</v>
       </c>
       <c r="L55" s="22" t="n">
-        <v>63462.45084999999</v>
+        <v>63463.00637</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>68966.69839000001</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>68962.49365999999</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>76486.10799999999</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>24929.01245</v>
@@ -3536,10 +3241,10 @@
         <v>362175.85833</v>
       </c>
       <c r="I56" s="22" t="n">
-        <v>121477.60327</v>
+        <v>123683.79528</v>
       </c>
       <c r="J56" s="21" t="n">
-        <v>270984.59026</v>
+        <v>271708.21574</v>
       </c>
       <c r="K56" s="22" t="n">
         <v>146252.8854</v>
@@ -3550,12 +3255,17 @@
       <c r="M56" s="22" t="n">
         <v>131289.89773</v>
       </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+      <c r="N56" s="22" t="n">
+        <v>88029.299</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>1214.09003</v>
@@ -3576,10 +3286,10 @@
         <v>847.4874199999999</v>
       </c>
       <c r="I57" s="22" t="n">
-        <v>866.2241300000001</v>
+        <v>984.0332099999999</v>
       </c>
       <c r="J57" s="21" t="n">
-        <v>811.4940799999999</v>
+        <v>990.36928</v>
       </c>
       <c r="K57" s="22" t="n">
         <v>1518.48314</v>
@@ -3590,12 +3300,17 @@
       <c r="M57" s="22" t="n">
         <v>1044.73319</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>2755.364</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>120</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>2330.71728</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>2327.51</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>0</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>102.29217</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>112.099</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,12 +3434,17 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>20540703.19936</v>
@@ -3732,35 +3462,40 @@
         <v>21681694.87244</v>
       </c>
       <c r="H61" s="37" t="n">
-        <v>21465694.73788</v>
+        <v>21465801.82351</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>20165578.21622</v>
+        <v>31652478.0023</v>
       </c>
       <c r="J61" s="37" t="n">
-        <v>28007004.0084</v>
+        <v>34815956.85428999</v>
       </c>
       <c r="K61" s="36" t="n">
         <v>35321936.93695001</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>35349455.01148999</v>
+        <v>35349460.25442</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>34541563.35232</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>34542323.40233999</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>35352745.331</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>9670.84275</v>
       </c>
       <c r="D62" s="36" t="n">
-        <v>9882.972189999999</v>
+        <v>9882.972190000002</v>
       </c>
       <c r="E62" s="36" t="n">
         <v>12003.39444</v>
@@ -3775,26 +3510,31 @@
         <v>29971.0408</v>
       </c>
       <c r="I62" s="36" t="n">
-        <v>42025.82683999999</v>
+        <v>44093.63334</v>
       </c>
       <c r="J62" s="37" t="n">
-        <v>31316.8357</v>
+        <v>41959.80404</v>
       </c>
       <c r="K62" s="36" t="n">
         <v>56131.94650999999</v>
       </c>
       <c r="L62" s="36" t="n">
-        <v>64501.70871999999</v>
+        <v>64501.70872</v>
       </c>
       <c r="M62" s="36" t="n">
         <v>68571.06822</v>
       </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+      <c r="N62" s="36" t="n">
+        <v>147601.728</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>125.15765</v>
@@ -3818,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="21" t="n">
-        <v>0</v>
+        <v>82.02479</v>
       </c>
       <c r="K63" s="22" t="n">
         <v>85.76058999999999</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>204</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>0</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>1500</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>1500</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,12 +3704,17 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>9545.685099999999</v>
@@ -3975,26 +3735,31 @@
         <v>25696.0408</v>
       </c>
       <c r="I67" s="22" t="n">
-        <v>37750.82683999999</v>
+        <v>39818.63334</v>
       </c>
       <c r="J67" s="21" t="n">
-        <v>28591.8357</v>
+        <v>39152.77924999999</v>
       </c>
       <c r="K67" s="22" t="n">
-        <v>51771.18591999999</v>
+        <v>51771.18592</v>
       </c>
       <c r="L67" s="22" t="n">
-        <v>63001.70871999999</v>
+        <v>63001.70872</v>
       </c>
       <c r="M67" s="22" t="n">
         <v>66867.06822</v>
       </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+      <c r="N67" s="22" t="n">
+        <v>146101.728</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>3203.73281</v>
@@ -4067,14 +3837,19 @@
         <v>882036.01524</v>
       </c>
       <c r="M69" s="36" t="n">
-        <v>919944.6577199999</v>
-      </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+        <v>919944.65772</v>
+      </c>
+      <c r="N69" s="36" t="n">
+        <v>145780.977</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>5.947649999999999</v>
@@ -4109,12 +3884,17 @@
       <c r="M70" s="22" t="n">
         <v>4298.738399999999</v>
       </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+      <c r="N70" s="22" t="n">
+        <v>931.0410000000001</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>0</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>1634.43647</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>4.87907</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>1563.34869</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>915641.04025</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>144849.936</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>2554127.016</v>
@@ -4375,26 +4185,31 @@
         <v>4624987.68245</v>
       </c>
       <c r="I77" s="23" t="n">
-        <v>6836448.77545</v>
+        <v>6840555.50445</v>
       </c>
       <c r="J77" s="33" t="n">
-        <v>7504347.958039999</v>
+        <v>7510347.958040001</v>
       </c>
       <c r="K77" s="23" t="n">
-        <v>8216480.859519999</v>
+        <v>8216480.85952</v>
       </c>
       <c r="L77" s="23" t="n">
         <v>8648860.05335</v>
       </c>
       <c r="M77" s="23" t="n">
-        <v>8270046.979009999</v>
-      </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+        <v>8270046.97901</v>
+      </c>
+      <c r="N77" s="23" t="n">
+        <v>8443395.305</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>9.97287</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>170225.21843</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>180219.256</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>447150.37123</v>
@@ -4509,12 +4334,17 @@
       <c r="M80" s="22" t="n">
         <v>58761.18667</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>58761.187</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>0</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>600</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>600</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>15658.78545</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>2984.06257</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>2984.063</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>2122722.16131</v>
@@ -4615,10 +4455,10 @@
         <v>4132082.11969</v>
       </c>
       <c r="I83" s="22" t="n">
-        <v>6359267.24299</v>
+        <v>6363373.97199</v>
       </c>
       <c r="J83" s="21" t="n">
-        <v>6961946.427069999</v>
+        <v>6967946.427069999</v>
       </c>
       <c r="K83" s="22" t="n">
         <v>7390130.66507</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>8064542.398689999</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>8227896.687</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>96.70396000000001</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>19897.76221</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>19897.762</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,52 +4649,62 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
         <v>4634436.1737</v>
       </c>
       <c r="D88" s="23" t="n">
-        <v>5789661.372559999</v>
+        <v>5789661.37256</v>
       </c>
       <c r="E88" s="23" t="n">
-        <v>6849800.62686</v>
+        <v>6849800.626859999</v>
       </c>
       <c r="F88" s="33" t="n">
-        <v>6951444.9025</v>
+        <v>6951444.902499999</v>
       </c>
       <c r="G88" s="23" t="n">
         <v>7157332.137610001</v>
       </c>
       <c r="H88" s="33" t="n">
-        <v>7318077.53102</v>
+        <v>7318184.616649999</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>5431402.056179999</v>
+        <v>8078521.426690001</v>
       </c>
       <c r="J88" s="33" t="n">
-        <v>6584313.54701</v>
+        <v>9309549.255550001</v>
       </c>
       <c r="K88" s="23" t="n">
-        <v>9665571.04627</v>
+        <v>9665571.046269998</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>10708708.51238</v>
+        <v>10708712.27429</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>11305409.30019</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>11305881.91511</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>13160003.718</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>1008.359</v>
@@ -4858,7 +4728,7 @@
         <v>9678.01684</v>
       </c>
       <c r="J89" s="21" t="n">
-        <v>5435.16102</v>
+        <v>5557.33572</v>
       </c>
       <c r="K89" s="22" t="n">
         <v>10114.9444</v>
@@ -4869,12 +4739,17 @@
       <c r="M89" s="22" t="n">
         <v>10160.24444</v>
       </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+      <c r="N89" s="22" t="n">
+        <v>11198.445</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>0</v>
@@ -4909,12 +4784,17 @@
       <c r="M90" s="22" t="n">
         <v>8.743639999999999</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>124.983</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>252415.29909</v>
@@ -4935,10 +4815,10 @@
         <v>375565.73391</v>
       </c>
       <c r="I91" s="22" t="n">
-        <v>228109.83648</v>
+        <v>372849.88018</v>
       </c>
       <c r="J91" s="21" t="n">
-        <v>381860.2145999999</v>
+        <v>381860.2146</v>
       </c>
       <c r="K91" s="22" t="n">
         <v>166881.64683</v>
@@ -4947,14 +4827,19 @@
         <v>157901.82023</v>
       </c>
       <c r="M91" s="22" t="n">
-        <v>161241.50057</v>
-      </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+        <v>161431.50057</v>
+      </c>
+      <c r="N91" s="22" t="n">
+        <v>163987.861</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>12392212.05776</v>
@@ -4975,10 +4860,10 @@
         <v>17641347.24532</v>
       </c>
       <c r="I92" s="22" t="n">
-        <v>11514678.0299</v>
+        <v>18873396.9415</v>
       </c>
       <c r="J92" s="21" t="n">
-        <v>16617050.50754</v>
+        <v>21565490.36656</v>
       </c>
       <c r="K92" s="22" t="n">
         <v>23010887.73865</v>
@@ -4989,12 +4874,17 @@
       <c r="M92" s="22" t="n">
         <v>27756724.06115</v>
       </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+      <c r="N92" s="22" t="n">
+        <v>30979297.462</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>24165.60015</v>
@@ -5012,13 +4902,13 @@
         <v>38094.16799</v>
       </c>
       <c r="H93" s="21" t="n">
-        <v>41241.7684</v>
+        <v>41341.13623</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>30086.98893</v>
+        <v>41319.22177999999</v>
       </c>
       <c r="J93" s="21" t="n">
-        <v>41991.83907</v>
+        <v>42344.42868</v>
       </c>
       <c r="K93" s="22" t="n">
         <v>41921.52828</v>
@@ -5027,14 +4917,19 @@
         <v>43632.57499</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>51824.59281</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>52200.44339999999</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>70013.88099999999</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>822590.11308</v>
@@ -5052,29 +4947,34 @@
         <v>1369467.21672</v>
       </c>
       <c r="H94" s="21" t="n">
-        <v>1422883.98285</v>
+        <v>1422889.36421</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>1179418.28624</v>
+        <v>1634235.46901</v>
       </c>
       <c r="J94" s="21" t="n">
-        <v>1010001.7045</v>
+        <v>1716789.76919</v>
       </c>
       <c r="K94" s="22" t="n">
         <v>1877841.16259</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>1950338.09426</v>
+        <v>1950343.11014</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>2077689.92364</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>2077803.67264</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>2292755.095</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>2166.00435</v>
@@ -5092,16 +4992,16 @@
         <v>3688.25882</v>
       </c>
       <c r="H95" s="21" t="n">
-        <v>2614.3018</v>
+        <v>2616.63824</v>
       </c>
       <c r="I95" s="22" t="n">
-        <v>3651.54964</v>
+        <v>3653.88608</v>
       </c>
       <c r="J95" s="21" t="n">
-        <v>3824.038230000001</v>
+        <v>3824.03823</v>
       </c>
       <c r="K95" s="22" t="n">
-        <v>4032.707310000001</v>
+        <v>4032.70731</v>
       </c>
       <c r="L95" s="22" t="n">
         <v>3178.19498</v>
@@ -5109,18 +5009,23 @@
       <c r="M95" s="22" t="n">
         <v>3294.30754</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>3430.557</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>9236076.263669999</v>
       </c>
       <c r="D96" s="22" t="n">
-        <v>9241025.673300002</v>
+        <v>9241025.6733</v>
       </c>
       <c r="E96" s="22" t="n">
         <v>10072264.18299</v>
@@ -5135,35 +5040,40 @@
         <v>12448018.8914</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>8323892.01495</v>
+        <v>13646283.3518</v>
       </c>
       <c r="J96" s="21" t="n">
-        <v>11890777.98758</v>
+        <v>15142823.09401</v>
       </c>
       <c r="K96" s="22" t="n">
         <v>15843672.61691</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>17626885.26627</v>
+        <v>17626886.52024</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>19214406.73104</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>19214613.71571</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>21251218.27</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>374407.31658</v>
       </c>
       <c r="D97" s="22" t="n">
-        <v>422224.6068599999</v>
+        <v>422224.60686</v>
       </c>
       <c r="E97" s="22" t="n">
-        <v>572492.62556</v>
+        <v>572492.6255600001</v>
       </c>
       <c r="F97" s="21" t="n">
         <v>352577.23902</v>
@@ -5178,7 +5088,7 @@
         <v>788584.65183</v>
       </c>
       <c r="J97" s="21" t="n">
-        <v>412928.98675</v>
+        <v>732207.1137000001</v>
       </c>
       <c r="K97" s="22" t="n">
         <v>393910.89429</v>
@@ -5189,12 +5099,17 @@
       <c r="M97" s="22" t="n">
         <v>446169.36453</v>
       </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+      <c r="N97" s="22" t="n">
+        <v>415219.66</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>1547.68736</v>
@@ -5209,19 +5124,19 @@
         <v>2538.57455</v>
       </c>
       <c r="G98" s="22" t="n">
-        <v>9954.073069999999</v>
+        <v>9954.07307</v>
       </c>
       <c r="H98" s="21" t="n">
         <v>7425.571910000001</v>
       </c>
       <c r="I98" s="22" t="n">
-        <v>862.15763</v>
+        <v>862.1576300000002</v>
       </c>
       <c r="J98" s="21" t="n">
-        <v>1774.52924</v>
+        <v>4074.52924</v>
       </c>
       <c r="K98" s="22" t="n">
-        <v>3615.16719</v>
+        <v>3615.167190000001</v>
       </c>
       <c r="L98" s="22" t="n">
         <v>136496.79929</v>
@@ -5229,12 +5144,17 @@
       <c r="M98" s="22" t="n">
         <v>12703.29291</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>475194.044</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>13234317.19385</v>
@@ -5249,32 +5169,37 @@
         <v>10162971.10055</v>
       </c>
       <c r="G99" s="23" t="n">
-        <v>9519019.826359998</v>
+        <v>9519019.82636</v>
       </c>
       <c r="H99" s="33" t="n">
-        <v>8954680.990139998</v>
+        <v>8954680.990140002</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>7223082.837700001</v>
+        <v>16014229.50302</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>13300575.22286</v>
+        <v>17314495.93335</v>
       </c>
       <c r="K99" s="23" t="n">
         <v>16058628.66859</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>14586393.60241</v>
+        <v>14586395.08343</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>13458882.21616</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>13459104.65126</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>12442799.379</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>14377392.71995</v>
@@ -5295,26 +5220,31 @@
         <v>15985736.37767</v>
       </c>
       <c r="I100" s="22" t="n">
-        <v>2949406.45157</v>
+        <v>19309623.03452</v>
       </c>
       <c r="J100" s="21" t="n">
-        <v>16570141.31202</v>
+        <v>22284893.86971</v>
       </c>
       <c r="K100" s="22" t="n">
         <v>22701115.4192</v>
       </c>
       <c r="L100" s="22" t="n">
-        <v>22926951.31959999</v>
+        <v>22926951.3196</v>
       </c>
       <c r="M100" s="22" t="n">
         <v>23104280.06098</v>
       </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+      <c r="N100" s="22" t="n">
+        <v>23265874.211</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>4615723.36465</v>
@@ -5338,7 +5268,7 @@
         <v>4619333.93827</v>
       </c>
       <c r="J101" s="21" t="n">
-        <v>3610.57362</v>
+        <v>4619333.93827</v>
       </c>
       <c r="K101" s="22" t="n">
         <v>4619323.36465</v>
@@ -5349,12 +5279,17 @@
       <c r="M101" s="22" t="n">
         <v>4619323.36465</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>4619323.365</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>100102.7276</v>
@@ -5375,26 +5310,31 @@
         <v>99665.51100999999</v>
       </c>
       <c r="I102" s="22" t="n">
-        <v>94831.84835000001</v>
+        <v>99686.09858000001</v>
       </c>
       <c r="J102" s="21" t="n">
-        <v>5064.977730000001</v>
+        <v>99735.80737000001</v>
       </c>
       <c r="K102" s="22" t="n">
         <v>99699.15357000001</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>99691.72927</v>
+        <v>99693.21028999999</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>99653.63416999999</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>99659.86249</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>99646.25999999999</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>1329.15726</v>
@@ -5415,7 +5355,7 @@
         <v>175431.77961</v>
       </c>
       <c r="I103" s="22" t="n">
-        <v>17030.38235</v>
+        <v>227695.9048</v>
       </c>
       <c r="J103" s="21" t="n">
         <v>265839.66523</v>
@@ -5429,12 +5369,17 @@
       <c r="M103" s="22" t="n">
         <v>354732.99041</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>402818.533</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>378408.21822</v>
@@ -5449,32 +5394,37 @@
         <v>493157.12583</v>
       </c>
       <c r="G104" s="22" t="n">
-        <v>438967.6393200001</v>
+        <v>438967.63932</v>
       </c>
       <c r="H104" s="21" t="n">
-        <v>462802.7882299999</v>
+        <v>462802.78823</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>320468.50905</v>
+        <v>485866.58741</v>
       </c>
       <c r="J104" s="21" t="n">
-        <v>503876.85633</v>
+        <v>508216.12096</v>
       </c>
       <c r="K104" s="22" t="n">
-        <v>516683.0096699999</v>
+        <v>516683.00967</v>
       </c>
       <c r="L104" s="22" t="n">
         <v>475029.29357</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>475231.6590399999</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>475447.86582</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>486336.954</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>4565534.13055</v>
@@ -5483,7 +5433,7 @@
         <v>5064328.76549</v>
       </c>
       <c r="E105" s="22" t="n">
-        <v>5596167.669009999</v>
+        <v>5596167.66901</v>
       </c>
       <c r="F105" s="21" t="n">
         <v>6247179.49911</v>
@@ -5495,10 +5445,10 @@
         <v>7311240.72984</v>
       </c>
       <c r="I105" s="22" t="n">
-        <v>12099608.29583</v>
+        <v>13466991.71416</v>
       </c>
       <c r="J105" s="21" t="n">
-        <v>13924321.89918</v>
+        <v>14510274.12445</v>
       </c>
       <c r="K105" s="22" t="n">
         <v>15790254.51558</v>
@@ -5509,12 +5459,17 @@
       <c r="M105" s="22" t="n">
         <v>18911809.31922</v>
       </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+      <c r="N105" s="22" t="n">
+        <v>20855973.595</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>10804173.62438</v>
@@ -5535,10 +5490,10 @@
         <v>19699531.38449</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>12877597.83772</v>
+        <v>22194969.02472</v>
       </c>
       <c r="J106" s="21" t="n">
-        <v>17972280.56125</v>
+        <v>24973798.09264001</v>
       </c>
       <c r="K106" s="22" t="n">
         <v>27936850.2944</v>
@@ -5549,12 +5504,17 @@
       <c r="M106" s="22" t="n">
         <v>34106148.81231</v>
       </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+      <c r="N106" s="22" t="n">
+        <v>37287173.539</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>0.5</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>0</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0</v>
@@ -5829,12 +5819,17 @@
       <c r="M113" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>104865.00871</v>
@@ -5846,7 +5841,7 @@
         <v>204010.31721</v>
       </c>
       <c r="F114" s="33" t="n">
-        <v>359085.68218</v>
+        <v>359085.6821800001</v>
       </c>
       <c r="G114" s="23" t="n">
         <v>206067.54394</v>
@@ -5855,26 +5850,31 @@
         <v>271718.78636</v>
       </c>
       <c r="I114" s="23" t="n">
-        <v>309902.0821100001</v>
+        <v>352361.29686</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>185615.05196</v>
+        <v>238768.51048</v>
       </c>
       <c r="K114" s="23" t="n">
-        <v>503792.6575799999</v>
+        <v>503792.65758</v>
       </c>
       <c r="L114" s="23" t="n">
         <v>451383.72759</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>511487.1994900001</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>511552.19949</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>1005224.222</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>104865.00871</v>
@@ -5895,10 +5895,10 @@
         <v>266482.80821</v>
       </c>
       <c r="I115" s="22" t="n">
-        <v>309902.0821100001</v>
+        <v>345802.75108</v>
       </c>
       <c r="J115" s="21" t="n">
-        <v>180037.76552</v>
+        <v>233191.22404</v>
       </c>
       <c r="K115" s="22" t="n">
         <v>496344.53796</v>
@@ -5907,14 +5907,19 @@
         <v>447689.5358</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>508949.9890700001</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>509014.9890700001</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>1004875.711</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>0</v>
@@ -5935,7 +5940,7 @@
         <v>5235.978150000001</v>
       </c>
       <c r="I116" s="22" t="n">
-        <v>0</v>
+        <v>6558.54578</v>
       </c>
       <c r="J116" s="21" t="n">
         <v>5577.286440000001</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>2537.21042</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>348.511</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>83.23154000000001</v>
@@ -5978,23 +5988,28 @@
         <v>1296.76138</v>
       </c>
       <c r="J117" s="33" t="n">
-        <v>3282.644389999999</v>
+        <v>3282.64439</v>
       </c>
       <c r="K117" s="23" t="n">
         <v>3490.94924</v>
       </c>
       <c r="L117" s="23" t="n">
-        <v>7482.3918</v>
+        <v>7482.391799999999</v>
       </c>
       <c r="M117" s="23" t="n">
-        <v>7221.931529999999</v>
-      </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+        <v>7221.93153</v>
+      </c>
+      <c r="N117" s="23" t="n">
+        <v>7940.002</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>0</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>4.7096</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>3.736</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>22.95154</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>60.28</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6147,14 +6177,19 @@
         <v>103.76606</v>
       </c>
       <c r="M121" s="22" t="n">
-        <v>513.49503</v>
-      </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+        <v>513.4950299999999</v>
+      </c>
+      <c r="N121" s="22" t="n">
+        <v>468.988</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>0</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>1042.93458</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>1069.157</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>0</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>2467.99885</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>3205.327</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6349,12 +6404,17 @@
       <c r="M126" s="22" t="n">
         <v>3192.79347</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>3192.794</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>29241944.51954</v>
@@ -6366,32 +6426,35 @@
         <v>32393681.82555</v>
       </c>
       <c r="F127" s="33" t="n">
-        <v>34716520.74087001</v>
+        <v>34716520.74086999</v>
       </c>
       <c r="G127" s="23" t="n">
-        <v>38618601.93145</v>
+        <v>38618601.93144999</v>
       </c>
       <c r="H127" s="33" t="n">
-        <v>42343456.56854</v>
+        <v>42365778.7301</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>39242509.99114</v>
+        <v>53964189.12580001</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>46436924.74969</v>
+        <v>60268175.58681</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>58210275.6908</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>63970007.64925</v>
+        <v>63970463.92545999</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>68441101.69773</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>68443790.59570999</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>72443025.17200001</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>612-Wireless telecommunications activities</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,12 +6553,17 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>3520822.034620001</v>
@@ -6495,7 +6572,7 @@
         <v>3756914.99811</v>
       </c>
       <c r="E132" s="23" t="n">
-        <v>8374408.311980001</v>
+        <v>8374408.31198</v>
       </c>
       <c r="F132" s="33" t="n">
         <v>4827660.79503</v>
@@ -6504,29 +6581,34 @@
         <v>6283498.576760001</v>
       </c>
       <c r="H132" s="33" t="n">
-        <v>7368298.60069</v>
+        <v>7378765.80986</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>11551240.96627</v>
+        <v>13295420.43697</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>8446561.419650001</v>
+        <v>18196714.04389</v>
       </c>
       <c r="K132" s="23" t="n">
         <v>12337410.39699</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>14851818.33254</v>
+        <v>14853018.74705</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>20483995.70099</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>20485251.5693</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>22242864.667</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>447110.08423</v>
@@ -6538,7 +6620,7 @@
         <v>761886.7967900001</v>
       </c>
       <c r="F133" s="33" t="n">
-        <v>738769.7186299999</v>
+        <v>738769.71863</v>
       </c>
       <c r="G133" s="23" t="n">
         <v>75373.91829999999</v>
@@ -6547,26 +6629,31 @@
         <v>131275.17336</v>
       </c>
       <c r="I133" s="23" t="n">
-        <v>36529.87404</v>
+        <v>355771.7487</v>
       </c>
       <c r="J133" s="33" t="n">
         <v>452306.53347</v>
       </c>
       <c r="K133" s="23" t="n">
-        <v>522264.50196</v>
+        <v>522264.5019599999</v>
       </c>
       <c r="L133" s="23" t="n">
-        <v>761861.63844</v>
+        <v>761861.6384399999</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>2693537.22086</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>2693537.218860001</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>4041081.902</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>335739.01228</v>
@@ -6587,7 +6674,7 @@
         <v>28574.37924</v>
       </c>
       <c r="I134" s="22" t="n">
-        <v>35285.62048000001</v>
+        <v>342916.10976</v>
       </c>
       <c r="J134" s="21" t="n">
         <v>443333.4317000001</v>
@@ -6599,14 +6686,19 @@
         <v>754762.08373</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>2691563.896619999</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>2691563.89462</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>4036556.431</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>7587.718589999999</v>
@@ -6627,7 +6719,7 @@
         <v>10784.60887</v>
       </c>
       <c r="I135" s="22" t="n">
-        <v>0</v>
+        <v>7792.30984</v>
       </c>
       <c r="J135" s="21" t="n">
         <v>1.38548</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>609.643</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>2142.73927</v>
@@ -6667,7 +6764,7 @@
         <v>679.16579</v>
       </c>
       <c r="I136" s="22" t="n">
-        <v>0</v>
+        <v>179.74378</v>
       </c>
       <c r="J136" s="21" t="n">
         <v>1.38533</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>19.196</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>105926.09263</v>
@@ -6707,7 +6809,7 @@
         <v>92411.09615</v>
       </c>
       <c r="I137" s="22" t="n">
-        <v>927.09955</v>
+        <v>4925.91887</v>
       </c>
       <c r="J137" s="21" t="n">
         <v>8792.551599999999</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>1660.33231</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>3105.373</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>4e-05</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>0</v>
@@ -6921,12 +7048,17 @@
       <c r="M142" s="22" t="n">
         <v>312.99197</v>
       </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+      <c r="N142" s="22" t="n">
+        <v>829.609</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>1364606.38779</v>
@@ -6944,29 +7076,34 @@
         <v>3237677.18589</v>
       </c>
       <c r="H143" s="45" t="n">
-        <v>3790972.5543</v>
+        <v>3801431.96992</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>9108715.712650001</v>
+        <v>10021146.35801</v>
       </c>
       <c r="J143" s="45" t="n">
-        <v>5556625.912969999</v>
+        <v>9269671.501389999</v>
       </c>
       <c r="K143" s="46" t="n">
-        <v>8400631.910930002</v>
+        <v>8400631.91093</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>9849644.240319997</v>
+        <v>9849685.436520001</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>9946623.82041</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>9947210.239020001</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>10714141.912</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>1336015.61139</v>
@@ -6984,29 +7121,34 @@
         <v>2930650.11821</v>
       </c>
       <c r="H144" s="24" t="n">
-        <v>3475833.05401</v>
+        <v>3486292.46963</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>8794982.278750001</v>
+        <v>9703351.723379999</v>
       </c>
       <c r="J144" s="24" t="n">
-        <v>5242134.57591</v>
+        <v>8955180.16433</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>8083460.90051</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>9532149.204329997</v>
+        <v>9532188.628530001</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>9634856.17647</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>9635442.595079999</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>10397734.057</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>3609.67646</v>
@@ -7018,7 +7160,7 @@
         <v>3423.88032</v>
       </c>
       <c r="F145" s="24" t="n">
-        <v>5180.442609999999</v>
+        <v>5180.44261</v>
       </c>
       <c r="G145" s="25" t="n">
         <v>7107.30761</v>
@@ -7027,7 +7169,7 @@
         <v>13496.65423</v>
       </c>
       <c r="I145" s="25" t="n">
-        <v>13407.82734</v>
+        <v>13432.82734</v>
       </c>
       <c r="J145" s="24" t="n">
         <v>13648.79239</v>
@@ -7041,12 +7183,17 @@
       <c r="M145" s="25" t="n">
         <v>11060.19275</v>
       </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+      <c r="N145" s="25" t="n">
+        <v>9671.683000000001</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>24769.36118</v>
@@ -7107,7 +7259,7 @@
         <v>3706.82384</v>
       </c>
       <c r="I147" s="25" t="n">
-        <v>41.23047999999999</v>
+        <v>4062.92361</v>
       </c>
       <c r="J147" s="24" t="n">
         <v>1965.3003</v>
@@ -7119,14 +7271,19 @@
         <v>2966.62754</v>
       </c>
       <c r="M147" s="25" t="n">
-        <v>3756.53294</v>
-      </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+        <v>3756.532940000001</v>
+      </c>
+      <c r="N147" s="25" t="n">
+        <v>9257.448</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>211.73876</v>
@@ -7141,13 +7298,13 @@
         <v>4800.22487</v>
       </c>
       <c r="G148" s="25" t="n">
-        <v>296077.07746</v>
+        <v>296077.0774600001</v>
       </c>
       <c r="H148" s="24" t="n">
         <v>297980.94757</v>
       </c>
       <c r="I148" s="25" t="n">
-        <v>300298.13167</v>
+        <v>300312.63927</v>
       </c>
       <c r="J148" s="24" t="n">
         <v>298877.24437</v>
@@ -7156,17 +7313,22 @@
         <v>297785.51372</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>298276.27079</v>
+        <v>298278.04279</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>296950.9182499999</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>296950.91825</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>297478.724</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>52585.07541999999</v>
@@ -7187,66 +7349,76 @@
         <v>1427190.28916</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>871514.0075400001</v>
+        <v>880881.6494700001</v>
       </c>
       <c r="J149" s="33" t="n">
-        <v>1116390.72706</v>
+        <v>6280934.153309999</v>
       </c>
       <c r="K149" s="23" t="n">
         <v>1160649.66375</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>694143.71539</v>
+        <v>694862.14755</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>3893047.74897</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>3893283.76502</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>2900872.207</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
-        <v>37009.62680999999</v>
+        <v>37009.62681</v>
       </c>
       <c r="D150" s="22" t="n">
         <v>86961.03912999999</v>
       </c>
       <c r="E150" s="22" t="n">
-        <v>3934847.052790001</v>
+        <v>3934847.05279</v>
       </c>
       <c r="F150" s="21" t="n">
-        <v>86668.56625</v>
+        <v>86668.56625000002</v>
       </c>
       <c r="G150" s="22" t="n">
-        <v>774735.24978</v>
+        <v>774735.2497800001</v>
       </c>
       <c r="H150" s="21" t="n">
         <v>966202.33208</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>45277.16426000001</v>
+        <v>51899.47017</v>
       </c>
       <c r="J150" s="21" t="n">
-        <v>915771.91201</v>
+        <v>916127.03601</v>
       </c>
       <c r="K150" s="22" t="n">
         <v>104022.62474</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>81505.51827</v>
+        <v>82178.72129</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>61964.15895</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>62147.14113</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>93036.382</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>1546.69175</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>12.51995</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>0</v>
@@ -7321,15 +7498,20 @@
       <c r="M152" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
-        <v>524.96843</v>
+        <v>524.9684299999999</v>
       </c>
       <c r="D153" s="22" t="n">
         <v>1597.77045</v>
@@ -7347,26 +7529,31 @@
         <v>3249.39378</v>
       </c>
       <c r="I153" s="22" t="n">
-        <v>6011.26716</v>
+        <v>6195.69562</v>
       </c>
       <c r="J153" s="21" t="n">
-        <v>8063.66832</v>
+        <v>8117.552930000001</v>
       </c>
       <c r="K153" s="22" t="n">
-        <v>4068.282189999999</v>
+        <v>4068.28219</v>
       </c>
       <c r="L153" s="22" t="n">
-        <v>5926.07125</v>
+        <v>5965.30274</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>8324.714809999999</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>8377.748680000001</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>12680.844</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>13503.78843</v>
@@ -7387,26 +7574,31 @@
         <v>457738.51904</v>
       </c>
       <c r="I154" s="22" t="n">
-        <v>820153.40783</v>
+        <v>822714.31539</v>
       </c>
       <c r="J154" s="21" t="n">
-        <v>192555.14673</v>
+        <v>5356689.56437</v>
       </c>
       <c r="K154" s="22" t="n">
         <v>1051767.89833</v>
       </c>
       <c r="L154" s="22" t="n">
-        <v>606657.64442</v>
+        <v>606663.6420700001</v>
       </c>
       <c r="M154" s="22" t="n">
         <v>3822746.35526</v>
       </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+      <c r="N154" s="22" t="n">
+        <v>2795154.981</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,15 +7633,20 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
-        <v>68079.98666000001</v>
+        <v>68079.98666</v>
       </c>
       <c r="D156" s="23" t="n">
         <v>62622.71781</v>
@@ -7467,26 +7664,31 @@
         <v>106563.58386</v>
       </c>
       <c r="I156" s="23" t="n">
-        <v>124658.63026</v>
+        <v>151810.01719</v>
       </c>
       <c r="J156" s="33" t="n">
-        <v>186077.92249</v>
+        <v>187577.92249</v>
       </c>
       <c r="K156" s="23" t="n">
         <v>180048.77025</v>
       </c>
       <c r="L156" s="23" t="n">
-        <v>1106570.63305</v>
+        <v>1106981.26173</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>1102048.36994</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>1102054.46994</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>1277177.775</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>65321.0182</v>
@@ -7498,35 +7700,40 @@
         <v>45961.09615</v>
       </c>
       <c r="F157" s="21" t="n">
-        <v>46665.83806</v>
+        <v>46665.83805999999</v>
       </c>
       <c r="G157" s="22" t="n">
         <v>126769.83982</v>
       </c>
       <c r="H157" s="21" t="n">
-        <v>83752.15334999999</v>
+        <v>83752.15335000001</v>
       </c>
       <c r="I157" s="22" t="n">
-        <v>103470.64264</v>
+        <v>130622.02957</v>
       </c>
       <c r="J157" s="21" t="n">
-        <v>127105.50085</v>
+        <v>128605.50085</v>
       </c>
       <c r="K157" s="22" t="n">
         <v>112976.52375</v>
       </c>
       <c r="L157" s="22" t="n">
-        <v>157891.8043</v>
+        <v>158302.43298</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>141190.8766</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>141196.9766</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>114049.893</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>2758.96846</v>
@@ -7556,17 +7763,22 @@
         <v>67072.24649999999</v>
       </c>
       <c r="L158" s="22" t="n">
-        <v>948678.82875</v>
+        <v>948678.8287500001</v>
       </c>
       <c r="M158" s="22" t="n">
-        <v>960857.49334</v>
-      </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+        <v>960857.4933399999</v>
+      </c>
+      <c r="N158" s="22" t="n">
+        <v>1163127.882</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>0</v>
@@ -7590,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="J159" s="33" t="n">
-        <v>2055.27604</v>
+        <v>3519.56029</v>
       </c>
       <c r="K159" s="23" t="n">
         <v>3964.95987</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>3340.42731</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>4214.512</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>0</v>
@@ -7630,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="J160" s="21" t="n">
-        <v>2055.27604</v>
+        <v>3519.56029</v>
       </c>
       <c r="K160" s="22" t="n">
         <v>3964.95987</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>3340.42731</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>4214.512</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,12 +7903,17 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>711919.2274</v>
@@ -7704,29 +7931,34 @@
         <v>923130.29502</v>
       </c>
       <c r="H162" s="33" t="n">
-        <v>988156.4476000001</v>
+        <v>988164.01196</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>848650.9606999999</v>
+        <v>975225.23185</v>
       </c>
       <c r="J162" s="33" t="n">
-        <v>413720.72509</v>
+        <v>1071795.10161</v>
       </c>
       <c r="K162" s="23" t="n">
         <v>1026769.31191</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>1038921.24276</v>
+        <v>1038950.83085</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>1079916.88039</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>1080259.84993</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>1330620.382</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
         <v>700671.4179499999</v>
@@ -7744,29 +7976,34 @@
         <v>851164.66287</v>
       </c>
       <c r="H163" s="21" t="n">
-        <v>958325.4749899999</v>
+        <v>958330.4556000001</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>818243.0409699999</v>
+        <v>943127.47705</v>
       </c>
       <c r="J163" s="21" t="n">
-        <v>367901.74979</v>
+        <v>1015873.49867</v>
       </c>
       <c r="K163" s="22" t="n">
         <v>956649.57315</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>979901.59382</v>
+        <v>979910.66628</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>1024039.86799</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>1024285.302</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>1269429.931</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>10046.00554</v>
@@ -7784,29 +8021,34 @@
         <v>18504.71251</v>
       </c>
       <c r="H164" s="21" t="n">
-        <v>18110.6701</v>
+        <v>18113.25385</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>17546.5684</v>
+        <v>19235.36935</v>
       </c>
       <c r="J164" s="21" t="n">
-        <v>31846.88203</v>
+        <v>36890.80866</v>
       </c>
       <c r="K164" s="22" t="n">
-        <v>43285.08895</v>
+        <v>43285.08895000001</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>31947.94483</v>
+        <v>31968.46046</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>37790.09863000001</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>37906.23492</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>37802.15</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>1200.84201</v>
@@ -7821,16 +8063,16 @@
         <v>6027.31174</v>
       </c>
       <c r="G165" s="22" t="n">
-        <v>6250.577579999999</v>
+        <v>6250.57758</v>
       </c>
       <c r="H165" s="21" t="n">
-        <v>4272.423059999999</v>
+        <v>4272.42306</v>
       </c>
       <c r="I165" s="22" t="n">
         <v>5302.44566</v>
       </c>
       <c r="J165" s="21" t="n">
-        <v>9821.12441</v>
+        <v>9847.086870000001</v>
       </c>
       <c r="K165" s="22" t="n">
         <v>7395.26868</v>
@@ -7839,14 +8081,19 @@
         <v>10211.41099</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>11666.55425</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>11646.67349</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>12640.346</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>0.9619</v>
@@ -7867,10 +8114,10 @@
         <v>7447.87945</v>
       </c>
       <c r="I166" s="22" t="n">
-        <v>7558.90567</v>
+        <v>7559.93979</v>
       </c>
       <c r="J166" s="21" t="n">
-        <v>4150.96886</v>
+        <v>9183.707409999999</v>
       </c>
       <c r="K166" s="22" t="n">
         <v>19439.38113</v>
@@ -7879,14 +8126,19 @@
         <v>16860.29312</v>
       </c>
       <c r="M166" s="22" t="n">
-        <v>6420.35952</v>
-      </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+        <v>6421.639520000001</v>
+      </c>
+      <c r="N166" s="22" t="n">
+        <v>10747.955</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
         <v>189301.93929</v>
@@ -7898,35 +8150,40 @@
         <v>334469.54535</v>
       </c>
       <c r="F167" s="33" t="n">
-        <v>363127.77246</v>
+        <v>363127.7724600001</v>
       </c>
       <c r="G167" s="23" t="n">
         <v>377889.3919</v>
       </c>
       <c r="H167" s="33" t="n">
-        <v>439825.54825</v>
+        <v>439825.77744</v>
       </c>
       <c r="I167" s="23" t="n">
-        <v>41398.54062</v>
+        <v>390810.56741</v>
       </c>
       <c r="J167" s="33" t="n">
-        <v>426190.9577199999</v>
+        <v>426214.84805</v>
       </c>
       <c r="K167" s="23" t="n">
         <v>421177.67416</v>
       </c>
       <c r="L167" s="23" t="n">
-        <v>531845.96419</v>
+        <v>531846.51971</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>606542.7492499999</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>606625.7229299999</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>752173.042</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>530948.99148</v>
@@ -7941,32 +8198,37 @@
         <v>518637.80193</v>
       </c>
       <c r="G168" s="22" t="n">
-        <v>605337.76338</v>
+        <v>605337.7633800001</v>
       </c>
       <c r="H168" s="21" t="n">
-        <v>641136.2557800001</v>
+        <v>641144.1600499999</v>
       </c>
       <c r="I168" s="22" t="n">
-        <v>448176.69572</v>
+        <v>448191.80228</v>
       </c>
       <c r="J168" s="21" t="n">
-        <v>80386.54347</v>
+        <v>84301.90695999999</v>
       </c>
       <c r="K168" s="22" t="n">
         <v>36626.9563</v>
       </c>
       <c r="L168" s="22" t="n">
-        <v>85666.56424000001</v>
+        <v>85667.11976</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>26776.06674</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>26857.69231</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>76691.375</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>529571.06455</v>
@@ -7981,32 +8243,37 @@
         <v>396990.04427</v>
       </c>
       <c r="G169" s="22" t="n">
-        <v>477926.87804</v>
+        <v>477926.8780400001</v>
       </c>
       <c r="H169" s="21" t="n">
-        <v>506190.04429</v>
+        <v>506197.71937</v>
       </c>
       <c r="I169" s="22" t="n">
-        <v>436594.46487</v>
+        <v>436594.23568</v>
       </c>
       <c r="J169" s="21" t="n">
-        <v>78280.81530999999</v>
+        <v>82196.17879999999</v>
       </c>
       <c r="K169" s="22" t="n">
-        <v>34585.50605</v>
+        <v>34585.50604999999</v>
       </c>
       <c r="L169" s="22" t="n">
         <v>48352.65074</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>24760.47466</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>24759.12655</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>52445.984</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>29032.55875</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>109437.47865</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>122620.493</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>158891.45361</v>
@@ -8107,10 +8384,10 @@
         <v>272221.68631</v>
       </c>
       <c r="I172" s="22" t="n">
-        <v>865.29455</v>
+        <v>350261.9855900001</v>
       </c>
       <c r="J172" s="21" t="n">
-        <v>356837.87336</v>
+        <v>356861.76369</v>
       </c>
       <c r="K172" s="22" t="n">
         <v>363438.81218</v>
@@ -8121,15 +8398,20 @@
       <c r="M172" s="22" t="n">
         <v>495089.67852</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>605307.1580000001</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
-        <v>687209.7309499999</v>
+        <v>687209.73095</v>
       </c>
       <c r="D173" s="23" t="n">
         <v>560712.3046</v>
@@ -8147,10 +8429,10 @@
         <v>430983.18487</v>
       </c>
       <c r="I173" s="23" t="n">
-        <v>439180.50034</v>
+        <v>439182.1242200001</v>
       </c>
       <c r="J173" s="33" t="n">
-        <v>162979.0001</v>
+        <v>354899.68154</v>
       </c>
       <c r="K173" s="23" t="n">
         <v>478368.72104</v>
@@ -8159,14 +8441,19 @@
         <v>822459.2019199999</v>
       </c>
       <c r="M173" s="23" t="n">
-        <v>1095193.49376</v>
-      </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+        <v>1095194.42279</v>
+      </c>
+      <c r="N173" s="23" t="n">
+        <v>1160537.368</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>298140.34064</v>
@@ -8190,7 +8477,7 @@
         <v>22438.57742</v>
       </c>
       <c r="J174" s="21" t="n">
-        <v>13546.38136</v>
+        <v>14625.91865</v>
       </c>
       <c r="K174" s="22" t="n">
         <v>58640.54027</v>
@@ -8199,14 +8486,19 @@
         <v>29899.97318</v>
       </c>
       <c r="M174" s="22" t="n">
-        <v>45909.59340000001</v>
-      </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+        <v>45909.5934</v>
+      </c>
+      <c r="N174" s="22" t="n">
+        <v>90760.435</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>389069.39031</v>
@@ -8215,10 +8507,10 @@
         <v>352130.1954</v>
       </c>
       <c r="E175" s="22" t="n">
-        <v>337226.7344300001</v>
+        <v>337226.73443</v>
       </c>
       <c r="F175" s="21" t="n">
-        <v>340174.26191</v>
+        <v>340174.2619099999</v>
       </c>
       <c r="G175" s="22" t="n">
         <v>319970.63157</v>
@@ -8227,26 +8519,31 @@
         <v>419672.30096</v>
       </c>
       <c r="I175" s="22" t="n">
-        <v>416741.92292</v>
+        <v>416743.5468</v>
       </c>
       <c r="J175" s="21" t="n">
-        <v>149432.61874</v>
+        <v>340273.76289</v>
       </c>
       <c r="K175" s="22" t="n">
-        <v>419728.1807699999</v>
+        <v>419728.18077</v>
       </c>
       <c r="L175" s="22" t="n">
         <v>792559.22874</v>
       </c>
       <c r="M175" s="22" t="n">
-        <v>1049283.90036</v>
-      </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+        <v>1049284.82939</v>
+      </c>
+      <c r="N175" s="22" t="n">
+        <v>1069776.933</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>9.602879999999999</v>
@@ -8264,29 +8561,34 @@
         <v>36629.93636</v>
       </c>
       <c r="H176" s="33" t="n">
-        <v>53331.81929000001</v>
+        <v>53331.81929</v>
       </c>
       <c r="I176" s="23" t="n">
-        <v>80592.74011999999</v>
+        <v>80592.74012</v>
       </c>
       <c r="J176" s="33" t="n">
-        <v>130214.36471</v>
+        <v>149794.74174</v>
       </c>
       <c r="K176" s="23" t="n">
         <v>143534.88312</v>
       </c>
       <c r="L176" s="23" t="n">
-        <v>39426.0344</v>
+        <v>39426.04826</v>
       </c>
       <c r="M176" s="23" t="n">
-        <v>63744.9901</v>
-      </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+        <v>63745.4535</v>
+      </c>
+      <c r="N176" s="23" t="n">
+        <v>62045.567</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>0</v>
@@ -8319,14 +8621,19 @@
         <v>208.47332</v>
       </c>
       <c r="M177" s="22" t="n">
-        <v>474.52277</v>
-      </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+        <v>474.98617</v>
+      </c>
+      <c r="N177" s="22" t="n">
+        <v>620.776</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>9.602879999999999</v>
@@ -8350,23 +8657,28 @@
         <v>3.27365</v>
       </c>
       <c r="J178" s="21" t="n">
-        <v>1.80348</v>
+        <v>19582.18051</v>
       </c>
       <c r="K178" s="22" t="n">
         <v>19.39389</v>
       </c>
       <c r="L178" s="22" t="n">
-        <v>0</v>
+        <v>0.01386</v>
       </c>
       <c r="M178" s="22" t="n">
         <v>0.01386</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>63270.42027</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>61424.791</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>0</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>0.0332</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8481,12 +8803,17 @@
       <c r="M181" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>3940028.67167</v>
@@ -8504,29 +8831,34 @@
         <v>1904189.53464</v>
       </c>
       <c r="H182" s="33" t="n">
-        <v>9065923.745549999</v>
+        <v>9077423.745549999</v>
       </c>
       <c r="I182" s="23" t="n">
-        <v>10282106.46579</v>
+        <v>15447816.23467</v>
       </c>
       <c r="J182" s="33" t="n">
-        <v>17662203.04183</v>
+        <v>17717531.33044</v>
       </c>
       <c r="K182" s="23" t="n">
         <v>21436295.12207</v>
       </c>
       <c r="L182" s="23" t="n">
-        <v>26949416.72057</v>
+        <v>26949435.73563</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>24388941.05771</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>24389091.05771</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>24712395.466</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>3662479.12376</v>
@@ -8541,16 +8873,16 @@
         <v>1543274.40633</v>
       </c>
       <c r="G183" s="23" t="n">
-        <v>551419.1151100001</v>
+        <v>551419.11511</v>
       </c>
       <c r="H183" s="33" t="n">
         <v>1763274.34508</v>
       </c>
       <c r="I183" s="23" t="n">
-        <v>3637892.25721</v>
+        <v>4573690.352700001</v>
       </c>
       <c r="J183" s="33" t="n">
-        <v>8479477.674309999</v>
+        <v>8479477.674310001</v>
       </c>
       <c r="K183" s="23" t="n">
         <v>9708111.942440001</v>
@@ -8561,12 +8893,17 @@
       <c r="M183" s="23" t="n">
         <v>17455202.95739</v>
       </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+      <c r="N183" s="23" t="n">
+        <v>17691776.198</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>3625936.51052</v>
@@ -8587,7 +8924,7 @@
         <v>1747452.18593</v>
       </c>
       <c r="I184" s="22" t="n">
-        <v>2192936.63566</v>
+        <v>3128734.731149999</v>
       </c>
       <c r="J184" s="21" t="n">
         <v>6729738.40161</v>
@@ -8601,12 +8938,17 @@
       <c r="M184" s="22" t="n">
         <v>11512056.89365</v>
       </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+      <c r="N184" s="22" t="n">
+        <v>10338597.952</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>42394.57348</v>
@@ -8641,12 +8983,17 @@
       <c r="M185" s="22" t="n">
         <v>0.00253</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>5851.96024</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>5940200</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>7340500</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>16760.44609</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>7028.263</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>0</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>19706.5073</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>19706.507</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>18</v>
@@ -8867,7 +9239,7 @@
         <v>3552389.72545</v>
       </c>
       <c r="I191" s="23" t="n">
-        <v>3551996.90291</v>
+        <v>5871793.713889999</v>
       </c>
       <c r="J191" s="33" t="n">
         <v>3552510.54067</v>
@@ -8876,17 +9248,22 @@
         <v>8523065.17753</v>
       </c>
       <c r="L191" s="23" t="n">
-        <v>6829489.48418</v>
+        <v>6829489.484180001</v>
       </c>
       <c r="M191" s="23" t="n">
         <v>3566877.32487</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>3556618.538</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>0</v>
@@ -8907,7 +9284,7 @@
         <v>1935.479</v>
       </c>
       <c r="I192" s="22" t="n">
-        <v>1577.99646</v>
+        <v>2321374.80744</v>
       </c>
       <c r="J192" s="21" t="n">
         <v>1377.12905</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>3183.75568</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>4765.748</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>0</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>1242.06454</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>288.694</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>18</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9081,12 +9478,17 @@
       <c r="M196" s="22" t="n">
         <v>3562448.50465</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>3551561.096</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>180508.36209</v>
@@ -9104,29 +9506,34 @@
         <v>1224521.08801</v>
       </c>
       <c r="H197" s="33" t="n">
-        <v>3599387.66166</v>
+        <v>3610887.66166</v>
       </c>
       <c r="I197" s="23" t="n">
-        <v>2940150.32589</v>
+        <v>4850265.188300001</v>
       </c>
       <c r="J197" s="33" t="n">
-        <v>5521414.794080001</v>
+        <v>5521487.875119999</v>
       </c>
       <c r="K197" s="23" t="n">
         <v>3001824.99929</v>
       </c>
       <c r="L197" s="23" t="n">
-        <v>3103213.39086</v>
+        <v>3103232.40592</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>3105211.27821</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>3105361.27821</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>3155244.497</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>180210.25609</v>
@@ -9144,10 +9551,10 @@
         <v>1213728.31706</v>
       </c>
       <c r="H198" s="21" t="n">
-        <v>695564.0053</v>
+        <v>707064.0053000001</v>
       </c>
       <c r="I198" s="22" t="n">
-        <v>35722.93637999999</v>
+        <v>1945837.79879</v>
       </c>
       <c r="J198" s="21" t="n">
         <v>2615316.74126</v>
@@ -9156,17 +9563,22 @@
         <v>94045.70074000001</v>
       </c>
       <c r="L198" s="22" t="n">
-        <v>182560.33653</v>
+        <v>182579.35159</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>199477.91774</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>199627.91774</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>246651.034</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>298.106</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>2902810.69089</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>2902810.691</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>0</v>
@@ -9350,7 +9782,7 @@
         <v>475.51624</v>
       </c>
       <c r="J203" s="21" t="n">
-        <v>2350.98105</v>
+        <v>2424.06209</v>
       </c>
       <c r="K203" s="22" t="n">
         <v>3925.9308</v>
@@ -9361,12 +9793,17 @@
       <c r="M203" s="22" t="n">
         <v>2922.66958</v>
       </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+      <c r="N203" s="22" t="n">
+        <v>5782.772</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>0</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>144.94021</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>176.102</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>0</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>144.94021</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>176.102</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>95620.64369</v>
@@ -9510,7 +9962,7 @@
         <v>130396.22761</v>
       </c>
       <c r="J207" s="33" t="n">
-        <v>86500.99359</v>
+        <v>141756.20116</v>
       </c>
       <c r="K207" s="23" t="n">
         <v>155062.94532</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>212907.29066</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>247145.572</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>95620.64369</v>
@@ -9550,7 +10007,7 @@
         <v>130332.86006</v>
       </c>
       <c r="J208" s="21" t="n">
-        <v>86500.99359</v>
+        <v>141705.87373</v>
       </c>
       <c r="K208" s="22" t="n">
         <v>155011.29423</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>212860.85972</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>247145.572</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9590,7 +10052,7 @@
         <v>63.36755</v>
       </c>
       <c r="J209" s="21" t="n">
-        <v>0</v>
+        <v>50.32743</v>
       </c>
       <c r="K209" s="22" t="n">
         <v>51.65109</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>46.43094</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>1379.59059</v>
@@ -9641,12 +10108,17 @@
       <c r="M210" s="23" t="n">
         <v>48597.26637</v>
       </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+      <c r="N210" s="23" t="n">
+        <v>61434.419</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>0</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>26940.47841</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>38066.14</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>1379.59059</v>
@@ -9721,12 +10198,17 @@
       <c r="M212" s="22" t="n">
         <v>21656.78796</v>
       </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+      <c r="N212" s="22" t="n">
+        <v>23368.279</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>22.95154</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>22.95154</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>21781093.81325</v>
@@ -9898,35 +10400,40 @@
         <v>22054994.63162</v>
       </c>
       <c r="F217" s="33" t="n">
-        <v>28103932.41790999</v>
+        <v>28103932.41791</v>
       </c>
       <c r="G217" s="23" t="n">
         <v>30430913.82005</v>
       </c>
       <c r="H217" s="33" t="n">
-        <v>25909234.2223</v>
+        <v>25909589.17469</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>17409162.55908</v>
+        <v>25220952.45416</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>20328160.28821</v>
+        <v>24353930.21248</v>
       </c>
       <c r="K217" s="23" t="n">
         <v>24436570.17174</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>22168772.59614</v>
+        <v>22168009.44278</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>23568164.93903</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>23569447.9687</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>25487765.039</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>15681147.6477</v>
@@ -9944,13 +10451,13 @@
         <v>11613472.61401</v>
       </c>
       <c r="H218" s="33" t="n">
-        <v>11843758.69831</v>
+        <v>11843808.69831</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>3650199.90235</v>
+        <v>13860340.7503</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>14179402.50094</v>
+        <v>14940052.51439</v>
       </c>
       <c r="K218" s="23" t="n">
         <v>19553509.71591</v>
@@ -9959,14 +10466,19 @@
         <v>19692421.24146</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>19716896.55556</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>19716775.57043</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>21729333.397</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>10094783.56156</v>
@@ -9984,29 +10496,34 @@
         <v>11529093.76751</v>
       </c>
       <c r="H219" s="21" t="n">
-        <v>11581071.26752</v>
+        <v>11581121.26752</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>3392543.21956</v>
+        <v>14602684.06751</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>13915704.91751</v>
+        <v>14676165.31751</v>
       </c>
       <c r="K219" s="22" t="n">
         <v>19289992.81752</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>19437334.48487</v>
+        <v>19437789.48487</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>19464332.48486</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>19467152.48486</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>21478376.485</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>2515.833</v>
@@ -10027,7 +10544,7 @@
         <v>25484.93002</v>
       </c>
       <c r="I220" s="22" t="n">
-        <v>30042.54291</v>
+        <v>1030042.54291</v>
       </c>
       <c r="J220" s="21" t="n">
         <v>23777.53962</v>
@@ -10036,17 +10553,22 @@
         <v>24106.86745</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>32243.71745</v>
+        <v>32698.71745</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>34651.74345</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>37599.24345</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>36176.58</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>5588885.51893</v>
@@ -10058,7 +10580,7 @@
         <v>5588891.931120001</v>
       </c>
       <c r="F221" s="21" t="n">
-        <v>5589479.81439</v>
+        <v>5589479.814389999</v>
       </c>
       <c r="G221" s="22" t="n">
         <v>88792.06213000001</v>
@@ -10070,7 +10592,7 @@
         <v>287699.2257</v>
       </c>
       <c r="J221" s="21" t="n">
-        <v>287512.62305</v>
+        <v>287702.2365</v>
       </c>
       <c r="K221" s="22" t="n">
         <v>287661.2658399999</v>
@@ -10079,14 +10601,19 @@
         <v>287330.47404</v>
       </c>
       <c r="M221" s="22" t="n">
-        <v>287215.81415</v>
-      </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+        <v>287222.3290200001</v>
+      </c>
+      <c r="N221" s="22" t="n">
+        <v>287133.492</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>5.59979</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>6823698.132900001</v>
@@ -10150,10 +10682,10 @@
         <v>11013609.05022</v>
       </c>
       <c r="J223" s="33" t="n">
-        <v>2269374.13776</v>
+        <v>11017859.52579</v>
       </c>
       <c r="K223" s="23" t="n">
-        <v>5446396.71032</v>
+        <v>5446396.710320001</v>
       </c>
       <c r="L223" s="23" t="n">
         <v>5473592.923290001</v>
@@ -10161,12 +10693,17 @@
       <c r="M223" s="23" t="n">
         <v>3952736.63652</v>
       </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+      <c r="N223" s="23" t="n">
+        <v>3283972.297</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>6822020.42064</v>
@@ -10190,7 +10727,7 @@
         <v>8749042.93083</v>
       </c>
       <c r="J224" s="21" t="n">
-        <v>557.5428000000001</v>
+        <v>8749042.93083</v>
       </c>
       <c r="K224" s="22" t="n">
         <v>3177926.33882</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>1677310.81232</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>1008512.655</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>5.14601</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>167.2004</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>167.2</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>0</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>50.0561</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>50.056</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>1672.56625</v>
@@ -10433,7 +11000,7 @@
         <v>2268737.45093</v>
       </c>
       <c r="K230" s="22" t="n">
-        <v>2268356.273430001</v>
+        <v>2268356.27343</v>
       </c>
       <c r="L230" s="22" t="n">
         <v>2275088.5677</v>
@@ -10441,12 +11008,17 @@
       <c r="M230" s="22" t="n">
         <v>2275208.5677</v>
       </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+      <c r="N230" s="22" t="n">
+        <v>2275242.386</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>4054478.94686</v>
@@ -10464,29 +11036,34 @@
         <v>5020986.61991</v>
       </c>
       <c r="H231" s="33" t="n">
-        <v>5701859.11268</v>
+        <v>5701859.112679999</v>
       </c>
       <c r="I231" s="23" t="n">
-        <v>2117299.53424</v>
+        <v>2120419.08062</v>
       </c>
       <c r="J231" s="33" t="n">
-        <v>2079022.66968</v>
+        <v>2080999.95731</v>
       </c>
       <c r="K231" s="23" t="n">
-        <v>2231690.294590001</v>
+        <v>2231690.29459</v>
       </c>
       <c r="L231" s="23" t="n">
-        <v>2538726.092939999</v>
+        <v>2538726.09294</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>2635907.54863</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>2635921.83745</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>2783205.219</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>754551.33414</v>
@@ -10501,7 +11078,7 @@
         <v>833692.4794399999</v>
       </c>
       <c r="G232" s="22" t="n">
-        <v>876661.31244</v>
+        <v>876661.3124399999</v>
       </c>
       <c r="H232" s="21" t="n">
         <v>882856.32554</v>
@@ -10510,7 +11087,7 @@
         <v>1221428.24259</v>
       </c>
       <c r="J232" s="21" t="n">
-        <v>1220270.41493</v>
+        <v>1222019.16028</v>
       </c>
       <c r="K232" s="22" t="n">
         <v>1511206.45669</v>
@@ -10519,14 +11096,19 @@
         <v>1681750.19164</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>1771581.82484</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>1771591.82484</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>1911327.33</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>5.15781</v>
@@ -10556,17 +11138,22 @@
         <v>85.8488</v>
       </c>
       <c r="L233" s="22" t="n">
-        <v>58.68902</v>
+        <v>58.68902000000001</v>
       </c>
       <c r="M233" s="22" t="n">
         <v>78.33894000000001</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>85.08199999999999</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>3290294.42625</v>
@@ -10590,7 +11177,7 @@
         <v>167772.00855</v>
       </c>
       <c r="J234" s="21" t="n">
-        <v>167944.60321</v>
+        <v>168173.14549</v>
       </c>
       <c r="K234" s="22" t="n">
         <v>17664.32232</v>
@@ -10601,12 +11188,17 @@
       <c r="M234" s="22" t="n">
         <v>18547.56358</v>
       </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+      <c r="N234" s="22" t="n">
+        <v>19169.165</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>0</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>123993.66105</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>123993.661</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>9628.02866</v>
@@ -10664,32 +11261,37 @@
         <v>52973.22715</v>
       </c>
       <c r="H236" s="21" t="n">
-        <v>729512.6213700001</v>
+        <v>729512.6213699999</v>
       </c>
       <c r="I236" s="22" t="n">
-        <v>728009.36358</v>
+        <v>731128.9099600001</v>
       </c>
       <c r="J236" s="21" t="n">
         <v>690704.11816</v>
       </c>
       <c r="K236" s="22" t="n">
-        <v>700713.6835299999</v>
+        <v>700713.68353</v>
       </c>
       <c r="L236" s="22" t="n">
         <v>838375.1951900001</v>
       </c>
       <c r="M236" s="22" t="n">
-        <v>721706.1602200001</v>
-      </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+        <v>721710.4490400001</v>
+      </c>
+      <c r="N236" s="22" t="n">
+        <v>728629.981</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
-        <v>884382.0684999999</v>
+        <v>884382.0685000001</v>
       </c>
       <c r="D237" s="23" t="n">
         <v>1520300.44729</v>
@@ -10701,32 +11303,37 @@
         <v>5869900.22524</v>
       </c>
       <c r="G237" s="23" t="n">
-        <v>8377779.459549999</v>
+        <v>8377779.45955</v>
       </c>
       <c r="H237" s="33" t="n">
-        <v>11626229.29688</v>
+        <v>11626502.65239</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>13691463.69957</v>
+        <v>13691803.80786</v>
       </c>
       <c r="J237" s="33" t="n">
-        <v>15798695.46745</v>
+        <v>15908600.04231</v>
       </c>
       <c r="K237" s="23" t="n">
         <v>12954779.35526</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>11392566.65847</v>
+        <v>11392573.73285</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>11382481.29634</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>11383400.6701</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>12937747.71</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-6115766.18922</v>
@@ -10738,35 +11345,40 @@
         <v>-10595764.10608</v>
       </c>
       <c r="F238" s="33" t="n">
-        <v>-9753368.368970001</v>
+        <v>-9753368.368969999</v>
       </c>
       <c r="G238" s="23" t="n">
-        <v>-5242749.41224</v>
+        <v>-5242749.412239999</v>
       </c>
       <c r="H238" s="33" t="n">
         <v>-15924411.48156</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-15228642.62595</v>
+        <v>-16723471.00188</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-12459457.62494</v>
+        <v>-17657997.48728</v>
       </c>
       <c r="K238" s="23" t="n">
         <v>-14217592.35918</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-16381001.27266</v>
+        <v>-16381028.01182</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-16439564.1958</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-16439286.55989</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-16515223.289</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>453153.20651</v>
@@ -10784,29 +11396,34 @@
         <v>1905204.07191</v>
       </c>
       <c r="H239" s="33" t="n">
-        <v>1647394.17649</v>
+        <v>1647425.77337</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>2165232.99865</v>
+        <v>1258250.76704</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>-1538876.86268</v>
+        <v>-1935584.34004</v>
       </c>
       <c r="K239" s="23" t="n">
         <v>-1532213.54516</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>-547533.04736</v>
+        <v>-548276.5359400001</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>2319707.09778</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>2319899.81409</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>1268729.705</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>2427031.77607</v>
@@ -10818,35 +11435,40 @@
         <v>2296496.51341</v>
       </c>
       <c r="F240" s="21" t="n">
-        <v>2471394.083030001</v>
+        <v>2471394.08303</v>
       </c>
       <c r="G240" s="22" t="n">
         <v>2667557.32341</v>
       </c>
       <c r="H240" s="21" t="n">
-        <v>2449749.11775</v>
+        <v>2449780.71463</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>2177071.73717</v>
+        <v>2177142.9484</v>
       </c>
       <c r="J240" s="21" t="n">
-        <v>184978.99067</v>
+        <v>200352.37845</v>
       </c>
       <c r="K240" s="22" t="n">
         <v>617649.92827</v>
       </c>
       <c r="L240" s="22" t="n">
-        <v>1044746.09059</v>
+        <v>1044748.06018</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>3068643.83956</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>3068931.57466</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>2466818.264</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>1973878.56956</v>
@@ -10867,26 +11489,31 @@
         <v>802354.94126</v>
       </c>
       <c r="I241" s="22" t="n">
-        <v>11838.73852</v>
+        <v>918892.18136</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>1723855.85335</v>
+        <v>2135936.71849</v>
       </c>
       <c r="K241" s="22" t="n">
         <v>2149863.47343</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>1592279.13795</v>
+        <v>1593024.59612</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>748936.74178</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>749031.7605699999</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>1198088.559</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
         <v>29241944.51954</v>
@@ -10895,7 +11522,7 @@
         <v>30103959.05939</v>
       </c>
       <c r="E242" s="47" t="n">
-        <v>32393681.82555</v>
+        <v>32393681.82554999</v>
       </c>
       <c r="F242" s="48" t="n">
         <v>34716520.74087001</v>
@@ -10904,26 +11531,29 @@
         <v>38618601.93144999</v>
       </c>
       <c r="H242" s="48" t="n">
-        <v>42343456.56853999</v>
+        <v>42365778.7301</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>39242509.99114001</v>
+        <v>53964189.1258</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>46436924.74969</v>
+        <v>60268175.58681</v>
       </c>
       <c r="K242" s="47" t="n">
         <v>58210275.6908</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>63970007.64924999</v>
+        <v>63970463.92545999</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>68441101.69773</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>68443790.59570999</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>72443025.17200001</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>78</v>
@@ -10960,26 +11593,29 @@
         <v>216</v>
       </c>
       <c r="H244" s="53" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="J244" s="53" t="n">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>334</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>347</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>359</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>371</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>